--- a/SchedulingData/dynamic9/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>255.06</v>
       </c>
       <c r="D2" t="n">
-        <v>278.06</v>
+        <v>292.86</v>
       </c>
       <c r="E2" t="n">
-        <v>13.684</v>
+        <v>11.844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>239.92</v>
+        <v>232.84</v>
       </c>
       <c r="D3" t="n">
-        <v>282.72</v>
+        <v>278.72</v>
       </c>
       <c r="E3" t="n">
-        <v>12.368</v>
+        <v>14.108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>261.28</v>
+        <v>230.02</v>
       </c>
       <c r="D4" t="n">
-        <v>312.16</v>
+        <v>299.72</v>
       </c>
       <c r="E4" t="n">
-        <v>13.964</v>
+        <v>11.208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>247.26</v>
+        <v>278.72</v>
       </c>
       <c r="D5" t="n">
-        <v>313.62</v>
+        <v>322.4</v>
       </c>
       <c r="E5" t="n">
-        <v>11.788</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>312.16</v>
+        <v>299.72</v>
       </c>
       <c r="D6" t="n">
-        <v>354.38</v>
+        <v>343.28</v>
       </c>
       <c r="E6" t="n">
-        <v>11.372</v>
+        <v>8.472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>354.38</v>
+        <v>292.86</v>
       </c>
       <c r="D7" t="n">
-        <v>387.38</v>
+        <v>337.76</v>
       </c>
       <c r="E7" t="n">
-        <v>9.212</v>
+        <v>8.984</v>
       </c>
     </row>
     <row r="8">
@@ -580,131 +580,131 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>264.86</v>
+        <v>337.76</v>
       </c>
       <c r="D8" t="n">
-        <v>303.3</v>
+        <v>374.98</v>
       </c>
       <c r="E8" t="n">
-        <v>9.48</v>
+        <v>6.392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>278.06</v>
+        <v>322.4</v>
       </c>
       <c r="D9" t="n">
-        <v>321.72</v>
+        <v>397.72</v>
       </c>
       <c r="E9" t="n">
-        <v>10.948</v>
+        <v>8.468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>282.72</v>
+        <v>231.32</v>
       </c>
       <c r="D10" t="n">
-        <v>342.12</v>
+        <v>271.22</v>
       </c>
       <c r="E10" t="n">
-        <v>8.048</v>
+        <v>14.468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>303.3</v>
+        <v>343.28</v>
       </c>
       <c r="D11" t="n">
-        <v>361.5</v>
+        <v>391.42</v>
       </c>
       <c r="E11" t="n">
-        <v>7.24</v>
+        <v>5.768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>251.22</v>
+        <v>200.9</v>
       </c>
       <c r="D12" t="n">
-        <v>304.78</v>
+        <v>258.6</v>
       </c>
       <c r="E12" t="n">
-        <v>10.172</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>321.72</v>
+        <v>270.88</v>
       </c>
       <c r="D13" t="n">
-        <v>381.42</v>
+        <v>333.74</v>
       </c>
       <c r="E13" t="n">
-        <v>8.087999999999999</v>
+        <v>11.696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>387.38</v>
+        <v>258.6</v>
       </c>
       <c r="D14" t="n">
-        <v>435.14</v>
+        <v>310.5</v>
       </c>
       <c r="E14" t="n">
-        <v>6.076</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="15">
@@ -717,51 +717,89 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>361.5</v>
+        <v>374.98</v>
       </c>
       <c r="D15" t="n">
-        <v>423.4</v>
+        <v>436.48</v>
       </c>
       <c r="E15" t="n">
-        <v>4.18</v>
+        <v>3.332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>342.12</v>
+        <v>333.74</v>
       </c>
       <c r="D16" t="n">
-        <v>392.44</v>
+        <v>392.7</v>
       </c>
       <c r="E16" t="n">
-        <v>5.136</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>pond51</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>348.26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.464</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pond47</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>271.22</v>
+      </c>
+      <c r="D18" t="n">
+        <v>310.02</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.228</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>pond5</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>313.62</v>
-      </c>
-      <c r="D17" t="n">
-        <v>382.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.98</v>
+      <c r="C19" t="n">
+        <v>310.02</v>
+      </c>
+      <c r="D19" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9.42</v>
       </c>
     </row>
   </sheetData>
